--- a/documentation/Praesentation/img/analysis1000_CrownNormal_runtime.xlsx
+++ b/documentation/Praesentation/img/analysis1000_CrownNormal_runtime.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluek\Documents\Bachelor\Results\Diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluek\Documents\Bachelor\documentation\Praesentation\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="analysis1000_CrownNormal_runtim" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -7441,10 +7441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I900"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7452,7 +7452,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1000</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>1.9759999999999999E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1200</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>2.10575E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1400</v>
       </c>
@@ -7532,8 +7532,12 @@
         <f>G3/D3</f>
         <v>2.5253333333333334E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f>AVERAGE(I:I)</f>
+        <v>4.30662942745671E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1600</v>
       </c>
@@ -7560,7 +7564,7 @@
         <v>2.617E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1800</v>
       </c>
@@ -7587,7 +7591,7 @@
         <v>2.797E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -7614,7 +7618,7 @@
         <v>3.1470000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2200</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>3.14E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2400</v>
       </c>
@@ -7668,7 +7672,7 @@
         <v>3.2326666666666667E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2600</v>
       </c>
@@ -7695,7 +7699,7 @@
         <v>3.6219999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2800</v>
       </c>
@@ -7722,7 +7726,7 @@
         <v>3.542E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3000</v>
       </c>
@@ -7749,7 +7753,7 @@
         <v>3.833E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3200</v>
       </c>
@@ -7776,7 +7780,7 @@
         <v>3.5986666666666667E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3400</v>
       </c>
@@ -7803,7 +7807,7 @@
         <v>4.0499999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3600</v>
       </c>
@@ -7830,7 +7834,7 @@
         <v>4.2180000000000004E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3800</v>
       </c>
@@ -7857,7 +7861,7 @@
         <v>4.313E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4000</v>
       </c>
@@ -31750,6 +31754,12 @@
       <c r="I900">
         <f t="shared" ref="I900" si="14">G900/D900</f>
         <v>1.1892E-2</v>
+      </c>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1048576">
+        <f>AVERAGE(B1:B1048575)</f>
+        <v>19.78</v>
       </c>
     </row>
   </sheetData>
